--- a/doc/Notes.xlsx
+++ b/doc/Notes.xlsx
@@ -27,13 +27,13 @@
     <t>个人理解</t>
   </si>
   <si>
-    <t>把不同的逻辑抽出一个方法</t>
-  </si>
-  <si>
     <t xml:space="preserve">提炼函数（106）Extract Function </t>
   </si>
   <si>
     <t>查询取代临时变量（178）Replace Temp with Query</t>
+  </si>
+  <si>
+    <t>提炼的关键就在于命名</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,15 +416,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Notes.xlsx
+++ b/doc/Notes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>书中术语</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>提炼的关键就在于命名</t>
+  </si>
+  <si>
+    <t>引入参数对象（Introduce Parameter Object）</t>
+  </si>
+  <si>
+    <t>把参数较多function的参数封装成为一个对象，专门用来传递对象，而不是传参数</t>
   </si>
 </sst>
 </file>
@@ -394,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -427,6 +433,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Notes.xlsx
+++ b/doc/Notes.xlsx
@@ -39,7 +39,8 @@
     <t>引入参数对象（Introduce Parameter Object）</t>
   </si>
   <si>
-    <t>把参数较多function的参数封装成为一个对象，专门用来传递对象，而不是传参数</t>
+    <t>把参数较多function的参数封装成为一个对象，专门用来传递对象，而不是传参数
+这个应该就是所谓的DTO对象了</t>
   </si>
 </sst>
 </file>
@@ -88,9 +89,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -433,11 +437,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
